--- a/resources/GIL3/Students.xlsx
+++ b/resources/GIL3/Students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GIL3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D116BE-368C-423F-B7BE-651621012E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C40CC8-46C3-4E4E-B7E5-2C5B81749D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4771A2A2-0015-4A81-9868-A684145FF2DA}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -530,10 +530,10 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>28</v>
@@ -553,10 +553,10 @@
         <v>17000011</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D2" s="3">
         <v>36345</v>
@@ -568,7 +568,7 @@
         <v>698211117</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f t="shared" ref="G2:G11" si="0">CONCATENATE(B2,".",C2,"@etu.uae.ac.ma")</f>
+        <f>CONCATENATE(C2,".",B2,"@etu.uae.ac.ma")</f>
         <v>GIL3_FN1.GIL3_LN1@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -578,10 +578,10 @@
         <v>17000012</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -593,20 +593,20 @@
         <v>680010409</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C3,".",B3,"@etu.uae.ac.ma")</f>
         <v>GIL3_FN2.GIL3_LN2@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A11" si="1">A3+1</f>
+        <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>17000013</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="3">
         <v>36382</v>
@@ -618,20 +618,20 @@
         <v>692043211</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C4,".",B4,"@etu.uae.ac.ma")</f>
         <v>GIL3_FN3.GIL3_LN3@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17000014</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1</v>
@@ -643,20 +643,20 @@
         <v>678987198</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C5,".",B5,"@etu.uae.ac.ma")</f>
         <v>GIL3_FN4.GIL3_LN4@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17000015</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D6" s="3">
         <v>36168</v>
@@ -668,20 +668,20 @@
         <v>678145346</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C6,".",B6,"@etu.uae.ac.ma")</f>
         <v>GIL3_FN5.GIL3_LN5@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17000016</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>2</v>
@@ -693,20 +693,20 @@
         <v>789122665</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C7,".",B7,"@etu.uae.ac.ma")</f>
         <v>GIL3_FN6.GIL3_LN6@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17000017</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
@@ -718,20 +718,20 @@
         <v>604450929</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C8,".",B8,"@etu.uae.ac.ma")</f>
         <v>GIL3_FN7.GIL3_LN7@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17000018</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D9" s="3">
         <v>36348</v>
@@ -743,20 +743,20 @@
         <v>633986012</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C9,".",B9,"@etu.uae.ac.ma")</f>
         <v>GIL3_FN8.GIL3_LN8@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17000019</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
@@ -768,20 +768,20 @@
         <v>721300012</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C10,".",B10,"@etu.uae.ac.ma")</f>
         <v>GIL3_FN9.GIL3_LN9@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17000020</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="3">
         <v>36251</v>
@@ -793,7 +793,7 @@
         <v>769980567</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C11,".",B11,"@etu.uae.ac.ma")</f>
         <v>GIL3_FN10.GIL3_LN10@etu.uae.ac.ma</v>
       </c>
     </row>

--- a/resources/GIL3/Students.xlsx
+++ b/resources/GIL3/Students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GIL3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C40CC8-46C3-4E4E-B7E5-2C5B81749D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DC2847-E6C9-4BA4-AF5D-050C4E10176B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4771A2A2-0015-4A81-9868-A684145FF2DA}"/>
   </bookViews>
@@ -32,82 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
-  <si>
-    <t>17/5/1999</t>
-  </si>
-  <si>
-    <t>20/2/1999</t>
-  </si>
-  <si>
-    <t>15/9/1999</t>
-  </si>
-  <si>
-    <t>14/3/1999</t>
-  </si>
-  <si>
-    <t>27/12/1999</t>
-  </si>
-  <si>
-    <t>GIL3_FN1</t>
-  </si>
-  <si>
-    <t>GIL3_FN2</t>
-  </si>
-  <si>
-    <t>GIL3_FN3</t>
-  </si>
-  <si>
-    <t>GIL3_FN4</t>
-  </si>
-  <si>
-    <t>GIL3_FN5</t>
-  </si>
-  <si>
-    <t>GIL3_FN6</t>
-  </si>
-  <si>
-    <t>GIL3_FN7</t>
-  </si>
-  <si>
-    <t>GIL3_FN8</t>
-  </si>
-  <si>
-    <t>GIL3_FN9</t>
-  </si>
-  <si>
-    <t>GIL3_FN10</t>
-  </si>
-  <si>
-    <t>GIL3_LN1</t>
-  </si>
-  <si>
-    <t>GIL3_LN2</t>
-  </si>
-  <si>
-    <t>GIL3_LN3</t>
-  </si>
-  <si>
-    <t>GIL3_LN4</t>
-  </si>
-  <si>
-    <t>GIL3_LN5</t>
-  </si>
-  <si>
-    <t>GIL3_LN6</t>
-  </si>
-  <si>
-    <t>GIL3_LN7</t>
-  </si>
-  <si>
-    <t>GIL3_LN8</t>
-  </si>
-  <si>
-    <t>GIL3_LN9</t>
-  </si>
-  <si>
-    <t>GIL3_LN10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="158">
   <si>
     <t>CNE</t>
   </si>
@@ -131,13 +56,466 @@
   </si>
   <si>
     <t>GIL3</t>
+  </si>
+  <si>
+    <t>Cameron Sears</t>
+  </si>
+  <si>
+    <t>Ebony Jenkins</t>
+  </si>
+  <si>
+    <t>Destiny Armstrong</t>
+  </si>
+  <si>
+    <t>Mollie Ortiz</t>
+  </si>
+  <si>
+    <t>Aristotle Gilliam</t>
+  </si>
+  <si>
+    <t>Ahmed House</t>
+  </si>
+  <si>
+    <t>Shana Chang</t>
+  </si>
+  <si>
+    <t>Colt Brown</t>
+  </si>
+  <si>
+    <t>Wanda Alexander</t>
+  </si>
+  <si>
+    <t>Tiger Ross</t>
+  </si>
+  <si>
+    <t>Kennan Gardner</t>
+  </si>
+  <si>
+    <t>Linda Huffman</t>
+  </si>
+  <si>
+    <t>Hasad Deleon</t>
+  </si>
+  <si>
+    <t>Rhonda Strong</t>
+  </si>
+  <si>
+    <t>Colleen Steele</t>
+  </si>
+  <si>
+    <t>Carson Mercado</t>
+  </si>
+  <si>
+    <t>Moana Walter</t>
+  </si>
+  <si>
+    <t>Harrison Reynolds</t>
+  </si>
+  <si>
+    <t>Alfreda Lyons</t>
+  </si>
+  <si>
+    <t>Paloma Macdonald</t>
+  </si>
+  <si>
+    <t>Gwendolyn Randolph</t>
+  </si>
+  <si>
+    <t>Griffin Davenport</t>
+  </si>
+  <si>
+    <t>Kiara Barlow</t>
+  </si>
+  <si>
+    <t>Venus Sykes</t>
+  </si>
+  <si>
+    <t>Maggy Terry</t>
+  </si>
+  <si>
+    <t>Philip Livingston</t>
+  </si>
+  <si>
+    <t>Shafira Mccray</t>
+  </si>
+  <si>
+    <t>Carter Wheeler</t>
+  </si>
+  <si>
+    <t>Camilla Trevino</t>
+  </si>
+  <si>
+    <t>Celeste Franks</t>
+  </si>
+  <si>
+    <t>Hedy Frazier</t>
+  </si>
+  <si>
+    <t>Abdul Wilkerson</t>
+  </si>
+  <si>
+    <t>Ian Brown</t>
+  </si>
+  <si>
+    <t>Silas Mckay</t>
+  </si>
+  <si>
+    <t>Lance Flynn</t>
+  </si>
+  <si>
+    <t>Ursula Moss</t>
+  </si>
+  <si>
+    <t>Tyler Middleton</t>
+  </si>
+  <si>
+    <t>Portia Byers</t>
+  </si>
+  <si>
+    <t>Honorato Tillman</t>
+  </si>
+  <si>
+    <t>Leila Boyer</t>
+  </si>
+  <si>
+    <t>Sade Duffy</t>
+  </si>
+  <si>
+    <t>Reese Palmer</t>
+  </si>
+  <si>
+    <t>TaShya Klein</t>
+  </si>
+  <si>
+    <t>Cullen Hudson</t>
+  </si>
+  <si>
+    <t>Solomon Harrison</t>
+  </si>
+  <si>
+    <t>Melanie Crawford</t>
+  </si>
+  <si>
+    <t>Stuart Rogers</t>
+  </si>
+  <si>
+    <t>Naomi Little</t>
+  </si>
+  <si>
+    <t>Calista Wolfe</t>
+  </si>
+  <si>
+    <t>Summer Vasquez</t>
+  </si>
+  <si>
+    <t>Keith Hammond</t>
+  </si>
+  <si>
+    <t>Isabella Henderson</t>
+  </si>
+  <si>
+    <t>Hamilton Hawkins</t>
+  </si>
+  <si>
+    <t>Gabriel Sims</t>
+  </si>
+  <si>
+    <t>George Garner</t>
+  </si>
+  <si>
+    <t>Julian Mcneil</t>
+  </si>
+  <si>
+    <t>Kamal Wyatt</t>
+  </si>
+  <si>
+    <t>Germane Riddle</t>
+  </si>
+  <si>
+    <t>Preston Melendez</t>
+  </si>
+  <si>
+    <t>Ann Wilkerson</t>
+  </si>
+  <si>
+    <t>Vladimir Lewis</t>
+  </si>
+  <si>
+    <t>Jaden Strong</t>
+  </si>
+  <si>
+    <t>Bryar Hyde</t>
+  </si>
+  <si>
+    <t>Clarke Le</t>
+  </si>
+  <si>
+    <t>Lani Ferrell</t>
+  </si>
+  <si>
+    <t>Galvin Daniels</t>
+  </si>
+  <si>
+    <t>Rhona Davidson</t>
+  </si>
+  <si>
+    <t>Melinda Nielsen</t>
+  </si>
+  <si>
+    <t>Walker Rich</t>
+  </si>
+  <si>
+    <t>Gillian Lowe</t>
+  </si>
+  <si>
+    <t>Ivory Alvarado</t>
+  </si>
+  <si>
+    <t>Kane Clayton</t>
+  </si>
+  <si>
+    <t>Martina Lancaster</t>
+  </si>
+  <si>
+    <t>Chandler Frederick</t>
+  </si>
+  <si>
+    <t>Harrison Best</t>
+  </si>
+  <si>
+    <t>Vanna Pollard</t>
+  </si>
+  <si>
+    <t>Denise Bradford</t>
+  </si>
+  <si>
+    <t>Wynter Day</t>
+  </si>
+  <si>
+    <t>Piper Duncan</t>
+  </si>
+  <si>
+    <t>Randall Orr</t>
+  </si>
+  <si>
+    <t>Abraham Frank</t>
+  </si>
+  <si>
+    <t>Mercedes Morris</t>
+  </si>
+  <si>
+    <t>Quail Vincent</t>
+  </si>
+  <si>
+    <t>Nasim Valdez</t>
+  </si>
+  <si>
+    <t>Brooke Mclaughlin</t>
+  </si>
+  <si>
+    <t>Valentine Walls</t>
+  </si>
+  <si>
+    <t>Xantha Velazquez</t>
+  </si>
+  <si>
+    <t>Chase Merrill</t>
+  </si>
+  <si>
+    <t>Wang Blackburn</t>
+  </si>
+  <si>
+    <t>Joshua Mcknight</t>
+  </si>
+  <si>
+    <t>Oscar Buckley</t>
+  </si>
+  <si>
+    <t>Harlan Cross</t>
+  </si>
+  <si>
+    <t>Hilda Coleman</t>
+  </si>
+  <si>
+    <t>Kirby Beach</t>
+  </si>
+  <si>
+    <t>Mariko Boyer</t>
+  </si>
+  <si>
+    <t>Christopher Christensen</t>
+  </si>
+  <si>
+    <t>Noble Dudley</t>
+  </si>
+  <si>
+    <t>Beverly Ramirez</t>
+  </si>
+  <si>
+    <t>Astra Barrera</t>
+  </si>
+  <si>
+    <t>Graham Holland</t>
+  </si>
+  <si>
+    <t>06 84 31 73 65</t>
+  </si>
+  <si>
+    <t>02 70 94 52 01</t>
+  </si>
+  <si>
+    <t>02 78 45 02 75</t>
+  </si>
+  <si>
+    <t>07 85 11 07 97</t>
+  </si>
+  <si>
+    <t>08 80 14 61 06</t>
+  </si>
+  <si>
+    <t>02 19 62 72 83</t>
+  </si>
+  <si>
+    <t>07 45 49 51 05</t>
+  </si>
+  <si>
+    <t>08 92 26 43 20</t>
+  </si>
+  <si>
+    <t>05 35 54 20 70</t>
+  </si>
+  <si>
+    <t>03 67 70 01 26</t>
+  </si>
+  <si>
+    <t>02 11 39 14 01</t>
+  </si>
+  <si>
+    <t>05 23 30 40 63</t>
+  </si>
+  <si>
+    <t>08 65 86 54 56</t>
+  </si>
+  <si>
+    <t>05 96 70 72 61</t>
+  </si>
+  <si>
+    <t>04 78 31 12 16</t>
+  </si>
+  <si>
+    <t>08 32 38 63 72</t>
+  </si>
+  <si>
+    <t>08 63 63 50 03</t>
+  </si>
+  <si>
+    <t>03 23 27 07 87</t>
+  </si>
+  <si>
+    <t>07 41 61 49 83</t>
+  </si>
+  <si>
+    <t>04 86 51 33 58</t>
+  </si>
+  <si>
+    <t>02 46 31 40 07</t>
+  </si>
+  <si>
+    <t>08 58 06 90 55</t>
+  </si>
+  <si>
+    <t>09 76 30 78 47</t>
+  </si>
+  <si>
+    <t>06 22 83 28 72</t>
+  </si>
+  <si>
+    <t>04 64 12 57 71</t>
+  </si>
+  <si>
+    <t>07 64 49 32 86</t>
+  </si>
+  <si>
+    <t>05 95 56 03 41</t>
+  </si>
+  <si>
+    <t>02 61 27 31 12</t>
+  </si>
+  <si>
+    <t>03 16 04 16 59</t>
+  </si>
+  <si>
+    <t>01 88 57 20 84</t>
+  </si>
+  <si>
+    <t>06 83 16 55 26</t>
+  </si>
+  <si>
+    <t>07 87 52 25 11</t>
+  </si>
+  <si>
+    <t>03 83 71 18 39</t>
+  </si>
+  <si>
+    <t>04 50 74 70 72</t>
+  </si>
+  <si>
+    <t>09 28 74 92 58</t>
+  </si>
+  <si>
+    <t>02 18 59 33 48</t>
+  </si>
+  <si>
+    <t>02 76 92 67 62</t>
+  </si>
+  <si>
+    <t>08 29 14 42 54</t>
+  </si>
+  <si>
+    <t>08 62 21 32 41</t>
+  </si>
+  <si>
+    <t>02 97 22 53 71</t>
+  </si>
+  <si>
+    <t>09 68 56 67 17</t>
+  </si>
+  <si>
+    <t>03 91 40 35 61</t>
+  </si>
+  <si>
+    <t>02 68 66 34 22</t>
+  </si>
+  <si>
+    <t>01 68 40 56 55</t>
+  </si>
+  <si>
+    <t>04 72 47 86 40</t>
+  </si>
+  <si>
+    <t>04 35 72 71 49</t>
+  </si>
+  <si>
+    <t>04 17 74 51 10</t>
+  </si>
+  <si>
+    <t>02 14 02 11 36</t>
+  </si>
+  <si>
+    <t>07 26 16 17 58</t>
+  </si>
+  <si>
+    <t>04 31 43 67 07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +525,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,284 +902,1284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C66E2B4-5213-4E44-825B-4B6D820745A8}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>17000011</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>17000051</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
       </c>
       <c r="D2" s="3">
-        <v>36345</v>
+        <v>37429</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1">
-        <v>698211117</v>
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>CONCATENATE(C2,".",B2,"@etu.uae.ac.ma")</f>
-        <v>GIL3_FN1.GIL3_LN1@etu.uae.ac.ma</v>
+        <f>CONCATENATE(SUBSTITUTE(B2," ",""),".",SUBSTITUTE(C2," ",""),"@etu.uae.ac.ma")</f>
+        <v>GrahamHolland.AstraBarrera@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f>A2+1</f>
-        <v>17000012</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>17000052</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="3">
+        <v>35872</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="1">
-        <v>680010409</v>
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f>CONCATENATE(C3,".",B3,"@etu.uae.ac.ma")</f>
-        <v>GIL3_FN2.GIL3_LN2@etu.uae.ac.ma</v>
+        <f t="shared" ref="G3:G51" si="0">CONCATENATE(SUBSTITUTE(B3," ",""),".",SUBSTITUTE(C3," ",""),"@etu.uae.ac.ma")</f>
+        <v>BeverlyRamirez.NobleDudley@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A11" si="0">A3+1</f>
-        <v>17000013</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
+        <f t="shared" ref="A4:A51" si="1">A3+1</f>
+        <v>17000053</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
       </c>
       <c r="D4" s="3">
-        <v>36382</v>
+        <v>35543</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1">
-        <v>692043211</v>
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>155</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f>CONCATENATE(C4,".",B4,"@etu.uae.ac.ma")</f>
-        <v>GIL3_FN3.GIL3_LN3@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>ChristopherChristensen.MarikoBoyer@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>17000014</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>17000054</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="3">
+        <v>36391</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1">
-        <v>678987198</v>
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>154</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f>CONCATENATE(C5,".",B5,"@etu.uae.ac.ma")</f>
-        <v>GIL3_FN4.GIL3_LN4@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>KirbyBeach.HildaColeman@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>17000015</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>17000055</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
       </c>
       <c r="D6" s="3">
-        <v>36168</v>
+        <v>36746</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1">
-        <v>678145346</v>
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f>CONCATENATE(C6,".",B6,"@etu.uae.ac.ma")</f>
-        <v>GIL3_FN5.GIL3_LN5@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>HarlanCross.OscarBuckley@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>17000016</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>17000056</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="3">
+        <v>37499</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1">
-        <v>789122665</v>
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>152</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>CONCATENATE(C7,".",B7,"@etu.uae.ac.ma")</f>
-        <v>GIL3_FN6.GIL3_LN6@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>JoshuaMcknight.WangBlackburn@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>17000017</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>17000057</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="3">
+        <v>37430</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1">
-        <v>604450929</v>
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>151</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f>CONCATENATE(C8,".",B8,"@etu.uae.ac.ma")</f>
-        <v>GIL3_FN7.GIL3_LN7@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>ChaseMerrill.XanthaVelazquez@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>17000018</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>17000058</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
       </c>
       <c r="D9" s="3">
-        <v>36348</v>
+        <v>36474</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1">
-        <v>633986012</v>
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f>CONCATENATE(C9,".",B9,"@etu.uae.ac.ma")</f>
-        <v>GIL3_FN8.GIL3_LN8@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>ValentineWalls.BrookeMclaughlin@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>17000019</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>17000059</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="3">
+        <v>36085</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1">
-        <v>721300012</v>
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>149</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f>CONCATENATE(C10,".",B10,"@etu.uae.ac.ma")</f>
-        <v>GIL3_FN9.GIL3_LN9@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>NasimValdez.QuailVincent@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>17000020</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <f t="shared" si="1"/>
+        <v>17000060</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="3">
+        <v>35814</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MercedesMorris.AbrahamFrank@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <f t="shared" si="1"/>
+        <v>17000061</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="3">
+        <v>36264</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>RandallOrr.PiperDuncan@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <f t="shared" si="1"/>
+        <v>17000062</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="3">
+        <v>35928</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>WynterDay.DeniseBradford@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>17000063</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="3">
+        <v>35462</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>VannaPollard.HarrisonBest@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>17000064</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="3">
+        <v>37095</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ChandlerFrederick.MartinaLancaster@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>17000065</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="3">
+        <v>36448</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>KaneClayton.IvoryAlvarado@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <f t="shared" si="1"/>
+        <v>17000066</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="3">
+        <v>35590</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>GillianLowe.WalkerRich@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>17000067</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="3">
+        <v>36668</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MelindaNielsen.RhonaDavidson@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>17000068</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="3">
+        <v>37196</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>GalvinDaniels.LaniFerrell@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>17000069</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="3">
+        <v>36865</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ClarkeLe.BryarHyde@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <f t="shared" si="1"/>
+        <v>17000070</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="3">
+        <v>36809</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>JadenStrong.VladimirLewis@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <f t="shared" si="1"/>
+        <v>17000071</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="3">
+        <v>37494</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>AnnWilkerson.PrestonMelendez@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <f t="shared" si="1"/>
+        <v>17000072</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="3">
+        <v>35541</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>GermaneRiddle.KamalWyatt@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>17000073</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="3">
+        <v>35521</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>JulianMcneil.GeorgeGarner@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <f t="shared" si="1"/>
+        <v>17000074</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="3">
+        <v>36509</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>GabrielSims.HamiltonHawkins@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <f t="shared" si="1"/>
+        <v>17000075</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="3">
+        <v>36555</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>IsabellaHenderson.KeithHammond@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <f t="shared" si="1"/>
+        <v>17000076</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="3">
+        <v>37558</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>SummerVasquez.CalistaWolfe@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <f t="shared" si="1"/>
+        <v>17000077</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="3">
+        <v>36774</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>NaomiLittle.StuartRogers@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <f t="shared" si="1"/>
+        <v>17000078</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="3">
+        <v>36216</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MelanieCrawford.SolomonHarrison@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <f t="shared" si="1"/>
+        <v>17000079</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="3">
+        <v>36468</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CullenHudson.TaShyaKlein@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <f t="shared" si="1"/>
+        <v>17000080</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="3">
+        <v>37416</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ReesePalmer.SadeDuffy@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <f t="shared" si="1"/>
+        <v>17000081</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="3">
+        <v>35905</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LeilaBoyer.HonoratoTillman@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <f t="shared" si="1"/>
+        <v>17000082</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="3">
+        <v>35683</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PortiaByers.TylerMiddleton@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <f t="shared" si="1"/>
+        <v>17000083</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="3">
+        <v>36354</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>UrsulaMoss.LanceFlynn@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <f t="shared" si="1"/>
+        <v>17000084</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="3">
+        <v>37591</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>SilasMckay.IanBrown@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <f t="shared" si="1"/>
+        <v>17000085</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="3">
+        <v>35957</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>AbdulWilkerson.HedyFrazier@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <f t="shared" si="1"/>
+        <v>17000086</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3">
+        <v>37011</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CelesteFranks.CamillaTrevino@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <f t="shared" si="1"/>
+        <v>17000087</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="3">
+        <v>36401</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CarterWheeler.ShafiraMccray@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <f t="shared" si="1"/>
+        <v>17000088</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="3">
+        <v>35844</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PhilipLivingston.MaggyTerry@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <f t="shared" si="1"/>
+        <v>17000089</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="3">
+        <v>37393</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>VenusSykes.KiaraBarlow@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <f t="shared" si="1"/>
+        <v>17000090</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="3">
+        <v>36083</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>GriffinDavenport.GwendolynRandolph@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <f t="shared" si="1"/>
+        <v>17000091</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="3">
+        <v>36150</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PalomaMacdonald.AlfredaLyons@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <f t="shared" si="1"/>
+        <v>17000092</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D43" s="3">
+        <v>37382</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>HarrisonReynolds.MoanaWalter@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <f t="shared" si="1"/>
+        <v>17000093</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="3">
+        <v>35482</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CarsonMercado.ColleenSteele@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <f t="shared" si="1"/>
+        <v>17000094</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="3">
+        <v>36789</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>RhondaStrong.HasadDeleon@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <f t="shared" si="1"/>
+        <v>17000095</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="3">
+        <v>36972</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LindaHuffman.KennanGardner@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <f t="shared" si="1"/>
+        <v>17000096</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="3">
+        <v>36797</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TigerRoss.WandaAlexander@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <f t="shared" si="1"/>
+        <v>17000097</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3">
-        <v>36251</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1">
-        <v>769980567</v>
-      </c>
-      <c r="G11" s="2" t="str">
-        <f>CONCATENATE(C11,".",B11,"@etu.uae.ac.ma")</f>
-        <v>GIL3_FN10.GIL3_LN10@etu.uae.ac.ma</v>
+      <c r="D48" s="3">
+        <v>37371</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>111</v>
+      </c>
+      <c r="G48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ColtBrown.ShanaChang@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <f t="shared" si="1"/>
+        <v>17000098</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="3">
+        <v>35828</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>AhmedHouse.AristotleGilliam@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <f t="shared" si="1"/>
+        <v>17000099</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="3">
+        <v>36059</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>MollieOrtiz.DestinyArmstrong@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <f t="shared" si="1"/>
+        <v>17000100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3">
+        <v>36353</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EbonyJenkins.CameronSears@etu.uae.ac.ma</v>
       </c>
     </row>
   </sheetData>
